--- a/VR Karting/Results/6170.xlsx
+++ b/VR Karting/Results/6170.xlsx
@@ -8,26 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forclass/Source/Masters/VR Karting/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265E8F43-3BD7-5040-8040-F05F43F5B8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD8E670-3EDA-B44C-A2D6-FABFE92580DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="760" windowWidth="16940" windowHeight="21580" xr2:uid="{233887AC-3B03-674C-BBCD-EB08225F91B1}"/>
+    <workbookView xWindow="1000" yWindow="760" windowWidth="16940" windowHeight="21580" activeTab="1" xr2:uid="{233887AC-3B03-674C-BBCD-EB08225F91B1}"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" r:id="rId1"/>
     <sheet name="Session 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Mini 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Session 2" sheetId="5" r:id="rId3"/>
+    <sheet name="Mini 1" sheetId="3" r:id="rId4"/>
+    <sheet name="Mini 2" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="78">
   <si>
     <t>bait</t>
   </si>
@@ -63,12 +76,6 @@
   </si>
   <si>
     <t>who'd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> True</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> False</t>
   </si>
   <si>
     <t>cot</t>
@@ -246,11 +253,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> True</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>reach</t>
+  </si>
+  <si>
+    <t>fond</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>PinkNoise</t>
+  </si>
+  <si>
+    <t>SingleTalker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hod</t>
+    <t>Clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,14 +300,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -305,11 +328,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,204 +646,804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D0B665-0D80-6748-B694-D4D85F2C5A47}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
-        <v>12</v>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -836,18 +1456,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B3BF3A-D277-7649-B3B0-3E1C603F0FAD}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
         <v>12</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
       </c>
       <c r="C1">
         <v>3.789234</v>
@@ -855,10 +1475,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.94128900000000004</v>
@@ -866,10 +1486,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>5.2105759999999997</v>
@@ -877,10 +1497,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1.2316780000000001</v>
@@ -888,10 +1508,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1.9876720000000001</v>
@@ -899,10 +1519,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>2.5437210000000001</v>
@@ -910,10 +1530,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
       </c>
       <c r="C7">
         <v>1.8092649999999999</v>
@@ -921,10 +1541,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2.818235</v>
@@ -932,10 +1552,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>3.3234569999999999</v>
@@ -943,10 +1563,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1.9915339999999999</v>
@@ -954,10 +1574,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1.9426779999999999</v>
@@ -965,10 +1585,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1.372398</v>
@@ -976,10 +1596,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0.72133400000000003</v>
@@ -987,10 +1607,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0.92544700000000002</v>
@@ -998,10 +1618,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
       </c>
       <c r="C15">
         <v>4.8221369999999997</v>
@@ -1009,10 +1629,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
       </c>
       <c r="C16">
         <v>3.3790279999999999</v>
@@ -1020,10 +1640,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0.72510300000000005</v>
@@ -1031,10 +1651,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1.526319</v>
@@ -1042,10 +1662,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
       </c>
       <c r="C19">
         <v>2.534189</v>
@@ -1053,10 +1673,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1.770508</v>
@@ -1064,10 +1684,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0.4440308</v>
@@ -1075,10 +1695,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
       </c>
       <c r="C22">
         <v>1.7150339999999999</v>
@@ -1086,10 +1706,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1.2041630000000001</v>
@@ -1097,10 +1717,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1.486127</v>
@@ -1108,10 +1728,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1.6120969999999999</v>
@@ -1119,10 +1739,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
       </c>
       <c r="C26">
         <v>2.0033569999999998</v>
@@ -1130,10 +1750,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0.46271000000000001</v>
@@ -1141,10 +1761,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
       </c>
       <c r="C28">
         <v>1.5364690000000001</v>
@@ -1152,10 +1772,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1.779541</v>
@@ -1163,10 +1783,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0.664856</v>
@@ -1174,10 +1794,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
       </c>
       <c r="C31">
         <v>3.6121219999999998</v>
@@ -1185,10 +1805,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
       </c>
       <c r="C32">
         <v>2.0171389999999998</v>
@@ -1196,10 +1816,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1.7011719999999999</v>
@@ -1207,10 +1827,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0.38690190000000002</v>
@@ -1218,10 +1838,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
       </c>
       <c r="C35">
         <v>1.2927249999999999</v>
@@ -1229,10 +1849,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
       </c>
       <c r="C36">
         <v>1.953247</v>
@@ -1240,10 +1860,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
       </c>
       <c r="C37">
         <v>1.576721</v>
@@ -1251,10 +1871,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0.5974121</v>
@@ -1262,10 +1882,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
+        <v>67</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
       </c>
       <c r="C39">
         <v>2.945344</v>
@@ -1273,10 +1893,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
       </c>
       <c r="C40">
         <v>1.932404</v>
@@ -1284,10 +1904,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
+        <v>62</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
       </c>
       <c r="C41">
         <v>2.566284</v>
@@ -1295,10 +1915,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0.86572269999999996</v>
@@ -1306,10 +1926,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
       </c>
       <c r="C43">
         <v>1.8092649999999999</v>
@@ -1317,10 +1937,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
       </c>
       <c r="C44">
         <v>2.5233150000000002</v>
@@ -1328,10 +1948,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
       </c>
       <c r="C45">
         <v>2.8334350000000001</v>
@@ -1339,10 +1959,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
       </c>
       <c r="C46">
         <v>3.4691770000000002</v>
@@ -1350,10 +1970,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
       </c>
       <c r="C47">
         <v>3.889618</v>
@@ -1361,10 +1981,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
       </c>
       <c r="C48">
         <v>1.576721</v>
@@ -1372,10 +1992,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
       </c>
       <c r="C49">
         <v>3.5129869999999999</v>
@@ -1383,10 +2003,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
       </c>
       <c r="C50">
         <v>1.625183</v>
@@ -1394,10 +2014,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
       </c>
       <c r="C51">
         <v>1.417419</v>
@@ -1405,10 +2025,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
       </c>
       <c r="C52">
         <v>2.3645320000000001</v>
@@ -1416,10 +2036,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1.772456</v>
@@ -1427,10 +2047,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
       </c>
       <c r="C54">
         <v>1.7011719999999999</v>
@@ -1438,10 +2058,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
       </c>
       <c r="C55">
         <v>1.554324</v>
@@ -1449,10 +2069,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
       </c>
       <c r="C56">
         <v>0.37891200000000003</v>
@@ -1465,77 +2085,1405 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5783F42-7E50-E749-A101-703E1AA2F81D}">
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1.5605770000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0453030000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.641327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0404739999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1.6196820000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.85652919999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.8688659999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.77402499999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.79897309999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.4679789999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.85598750000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.244583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.95724489999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>3.0543670000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.91766360000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1.2310639999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1.146881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1.5937809999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.66973879999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1.1712340000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0.72138979999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.56785580000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1.1582950000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.92202759999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1.479935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.6828613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1.1875610000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1.3179320000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0.90005489999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.8800964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1.403961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.97082520000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1.150757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0.84396360000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1.380676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>3.6669010000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2.726807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1.099548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2.3364259999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1.1576230000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0.80227660000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1.2418819999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0.81246949999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0.70553589999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1.743317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1.0529170000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1.8312379999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0.90832520000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0.98657229999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0.96624759999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1.3577269999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1.2615970000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0.87142940000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1.417419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0.76916499999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0.66876219999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1.5125029999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1.593094</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0.9649124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1.183929</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1.8644099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1.5379560000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>1.504623</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0.66831209999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0.9035339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>2.5876239999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0.77722170000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0.63293460000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1.6487959999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>2.2850799999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1.1920470000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1.436569</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0.79611209999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1.3249359999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0.98698430000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1.0100709999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0.84196470000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0.7598724</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0.45516970000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1.7874760000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0.99734500000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0.99430850000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0.54913330000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0.79167180000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>2.0810390000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>0.98185730000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>0.92678830000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1.013077</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>0.99128720000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0.58093260000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>0.86248780000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0.99237059999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>0.24002080000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>0.73336789999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>1.2340089999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>0.60144039999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>0.63287349999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1.6419980000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1.310333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1.1357120000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>0.91787719999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1.135254</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0.52954100000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1.143219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1.609772</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1.21875</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1.478394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0.93203740000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0.54824830000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>0.74111939999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>0.92440800000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204745BE-CCF8-B344-A31C-0F3888C466C0}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
+        <v>58</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5A3CB3-E883-4A4E-BBF5-BA6B55D98E7A}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/6170.xlsx
+++ b/VR Karting/Results/6170.xlsx
@@ -3,16 +3,18 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7320" yWindow="760" windowWidth="16940" windowHeight="21580" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="760" windowWidth="22620" windowHeight="21580" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Session 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Mini 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Session 2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Mini 2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Word Accuracies" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Contrast Accuracies" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Session 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Mini 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mini 1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Session 2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Mini 2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Word Accuracies" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Contrast Accuracies" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1580,7 +1582,7 @@
   </sheetPr>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -2320,6 +2322,1580 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.8379269</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.460754</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.338558</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.9595375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.6507912</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.273293</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.085686</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.8705826</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.113731</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.8830261</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.173607</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.9969711</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.87944</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.3033981</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.9379272</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.4595032</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5872498</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.201889</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.8925476</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.690201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.197815</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.3478546</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.6360931</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5817261</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.154068</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.4737549</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.491058</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.7210999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.136902</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.9511261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.9139099000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.6139526</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.9746094</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.4110718</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.9206238</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5933228</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.4343872</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.6539</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.7715759</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.8966064</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5527344</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.280487</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.6834412</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.6368408</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.8265991</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.5752869</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.219604</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.3430176</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.4771729</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.6879272</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.02566528</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.9853821</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.4414368</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.762848</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.7505493</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.098297</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.335035</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.86549</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.7516212</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.209061</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.484787</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.5888824</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.865696</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2.114944</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.727066</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.3909912</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.947235</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.211266</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.227013</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.7445068</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.4802704</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.7387238</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.395569</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.3967438</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.9283295</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.4088593</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.9690399</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.4523468</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.9674988</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.287674</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.4191589</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.28743</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.9834595</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.5558472</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.8740082</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.625793</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.9202423</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.7731323</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.566925</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.4027405</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.125702</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.2182007</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.8431090999999999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.708252</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.4301758</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.3557129</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.2410889</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.6500854</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.9569396999999999</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.1650696</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.9292297</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.3710022</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.8408813000000001</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.6680298</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.6561584</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.5755005</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.5505066</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.1183167</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.3212585</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.186035</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.4263916</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2418,7 +3994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3893,7 +5469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3992,13 +5568,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4022,6 +5598,11 @@
           <t>Session 2</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -4035,6 +5616,9 @@
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -4048,6 +5632,9 @@
       <c r="C3" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -4061,6 +5648,9 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -4074,6 +5664,9 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -4087,6 +5680,9 @@
       <c r="C6" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -4100,6 +5696,9 @@
       <c r="C7" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -4113,6 +5712,9 @@
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -4126,6 +5728,9 @@
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -4139,6 +5744,9 @@
       <c r="C10" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -4152,6 +5760,9 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -4165,6 +5776,9 @@
       <c r="C12" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -4178,6 +5792,9 @@
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -4191,6 +5808,9 @@
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -4204,6 +5824,9 @@
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -4217,6 +5840,9 @@
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -4230,6 +5856,9 @@
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -4243,6 +5872,9 @@
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -4256,6 +5888,9 @@
       <c r="C19" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -4269,6 +5904,9 @@
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -4282,6 +5920,9 @@
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -4295,6 +5936,9 @@
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -4308,6 +5952,9 @@
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -4321,6 +5968,9 @@
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -4334,6 +5984,9 @@
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -4347,6 +6000,9 @@
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -4360,6 +6016,9 @@
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -4373,6 +6032,9 @@
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -4386,6 +6048,9 @@
       <c r="C29" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -4399,6 +6064,9 @@
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -4412,6 +6080,9 @@
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -4425,6 +6096,9 @@
       <c r="C32" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -4438,6 +6112,9 @@
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -4451,6 +6128,9 @@
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -4464,6 +6144,9 @@
       <c r="C35" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -4477,6 +6160,9 @@
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -4490,6 +6176,9 @@
       <c r="C37" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -4503,6 +6192,9 @@
       <c r="C38" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -4516,6 +6208,9 @@
       <c r="C39" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D39" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -4529,6 +6224,9 @@
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -4542,6 +6240,9 @@
       <c r="C41" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -4555,6 +6256,9 @@
       <c r="C42" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -4568,6 +6272,9 @@
       <c r="C43" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -4581,6 +6288,9 @@
       <c r="C44" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D44" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -4594,6 +6304,9 @@
       <c r="C45" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -4607,6 +6320,9 @@
       <c r="C46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D46" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -4620,6 +6336,9 @@
       <c r="C47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -4633,6 +6352,9 @@
       <c r="C48" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D48" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -4646,6 +6368,9 @@
       <c r="C49" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -4659,6 +6384,9 @@
       <c r="C50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -4672,6 +6400,9 @@
       <c r="C51" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D51" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -4685,6 +6416,9 @@
       <c r="C52" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -4698,6 +6432,9 @@
       <c r="C53" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -4711,6 +6448,9 @@
       <c r="C54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -4724,6 +6464,9 @@
       <c r="C55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D55" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -4737,6 +6480,9 @@
       <c r="C56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -4749,6 +6495,9 @@
       </c>
       <c r="C57" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4756,13 +6505,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4786,6 +6535,11 @@
           <t>Session 2</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4799,6 +6553,9 @@
       <c r="C2" t="n">
         <v>0.7857142857142857</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4812,6 +6569,9 @@
       <c r="C3" t="n">
         <v>0.8214285714285714</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.9285714285714286</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4825,6 +6585,9 @@
       <c r="C4" t="n">
         <v>0.8214285714285714</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.9285714285714286</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4837,6 +6600,9 @@
       </c>
       <c r="C5" t="n">
         <v>0.8214285714285714</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8928571428571429</v>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/6170.xlsx
+++ b/VR Karting/Results/6170.xlsx
@@ -3,18 +3,21 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="760" windowWidth="22620" windowHeight="21580" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="760" windowWidth="22620" windowHeight="21580" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Session 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Session 3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Mini 3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Mini 1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Session 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Mini 2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Word Accuracies" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Contrast Accuracies" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Session 4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Mini 4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MID" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mini 1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Session 2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mini 2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Word Accuracies" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Contrast Accuracies" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1574,6 +1577,1337 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3804,7 +5138,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -3896,6 +5230,3759 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.9279575</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.999752</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.263302</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.251003</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.9519997</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.9076347</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5795822</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.107498</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.746544</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.835701</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.6615906</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5759659</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.5328979</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.9499359000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.7785415999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.308563</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.9853058</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.395096</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.7436371000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.6521301</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.899109</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.148392</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.7315216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.590454</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.3131561</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.9230042000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.095764</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.344147</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.58577</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.500626</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.5119781</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.9803467</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.161224</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.5443114999999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.4198914</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.6496582</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.7013245</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.794342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.6853027</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.914917</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.6789246</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.003357</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.7560425</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.7398071000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.101379</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.7181396</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.6271057</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.802307</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.6894531</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.8121033</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.4764709</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.1946716</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.727753</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.8772278</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.287537</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.6603394</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.395668</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.8838425</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.8472977</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.098747</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.9776993</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.9319305</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2.964844</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.8813324</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.7226563</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.231766</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.6367188</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2.831863</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.383499</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.574646</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.091995</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.467773</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2.599396</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.185928</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.9514923</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.016922</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.7584381</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2.402985</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.441513</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.665283</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.5776978</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.020203</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.113647</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.269104</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.6073608</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.029419</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.499756</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.9611511</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2.15625</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.587158</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.8143311</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.52887</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.6603394</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.7815247</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.6764832</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.46405</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>2.510712</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.7947997999999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.059509</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.787262</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.7626343</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.340485</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.6337891</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.204681</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.4910278</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.5668335</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.599457</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.9084778</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.7202454</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.8514709</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.4240112</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.3651733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3994,7 +9081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5467,1145 +10554,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="inlineStr">
-        <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="inlineStr">
-        <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="inlineStr">
-        <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="inlineStr">
-        <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="inlineStr">
-        <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="inlineStr">
-        <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="inlineStr">
-        <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="inlineStr">
-        <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="inlineStr">
-        <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="inlineStr">
-        <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="inlineStr">
-        <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="inlineStr">
-        <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="inlineStr">
-        <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="inlineStr">
-        <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/VR Karting/Results/6170.xlsx
+++ b/VR Karting/Results/6170.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="760" windowWidth="22620" windowHeight="21580" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="760" windowWidth="21420" windowHeight="21580" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,11 +13,13 @@
     <sheet name="Session 4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Mini 4" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="MID" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mini 1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Session 2" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Mini 2" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Word Accuracies" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Contrast Accuracies" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Session 5" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mini 5" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mini 1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Session 2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mini 2" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Contrast Accuracies" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1586,7 +1588,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1594,27 +1596,27 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>sub</t>
         </is>
       </c>
       <c r="B1" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
+          <t>chip</t>
         </is>
       </c>
       <c r="B2" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
+          <t>Boole</t>
         </is>
       </c>
       <c r="B3" s="0" t="b">
@@ -1628,17 +1630,17 @@
         </is>
       </c>
       <c r="B4" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>bull</t>
         </is>
       </c>
       <c r="B5" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1656,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
+          <t>tan</t>
         </is>
       </c>
       <c r="B7" s="0" t="b">
@@ -1664,7 +1666,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="B8" s="0" t="b">
@@ -1682,7 +1684,1581 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.560577</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.045303</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.641327</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.040474</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.619682</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.8565292</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.868866</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.774025</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.7989731</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.467979</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.8559875</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.244583</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.9572449</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3.054367</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.9176636</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.231064</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.146881</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.593781</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.6697388</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.171234</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.7213898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.5678558</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.158295</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.9220275999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.479935</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.6828613</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.187561</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.317932</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.9000549</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.8800964</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.403961</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.9708252000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.150757</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.8439636</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.380676</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>3.666901</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2.726807</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.099548</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2.336426</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.157623</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.8022766</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.241882</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.8124695</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.7055359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.743317</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.052917</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.831238</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.9083252000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.9865723</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.9662476</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.357727</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.261597</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.8714294</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.417419</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.769165</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.6687622</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.512503</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.593094</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.9649124</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.183929</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.86441</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.537956</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.504623</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.6683121</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.9035339</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>2.587624</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.7772217</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.6329346</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.648796</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2.28508</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.192047</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.436569</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.7961121</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.324936</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.9869843</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.010071</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.8419647</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.7598724</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.4551697</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.787476</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.997345</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.9943085</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.5491333</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.7916718</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2.081039</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.9818573</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.9267883</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.013077</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.9912872</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.5809326</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.8624878</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.9923706</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.2400208</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.7333679</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.234009</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.6014404</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.6328735</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.641998</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.310333</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.135712</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.9178771999999999</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.135254</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.529541</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.143219</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.609772</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.21875</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.478394</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.9320374</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.5482483</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.7411194</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.924408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1716,6 +3292,11 @@
           <t>Session 4</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -1735,6 +3316,9 @@
       <c r="E2" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -1754,6 +3338,9 @@
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -1773,6 +3360,9 @@
       <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -1792,6 +3382,9 @@
       <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -1811,6 +3404,9 @@
       <c r="E6" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -1830,6 +3426,9 @@
       <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -1849,6 +3448,9 @@
       <c r="E8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -1868,6 +3470,9 @@
       <c r="E9" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -1887,6 +3492,9 @@
       <c r="E10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -1906,6 +3514,9 @@
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F11" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -1925,6 +3536,9 @@
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -1944,6 +3558,9 @@
       <c r="E13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -1963,6 +3580,9 @@
       <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -1982,6 +3602,9 @@
       <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -2001,6 +3624,9 @@
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F16" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -2020,6 +3646,9 @@
       <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F17" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -2039,6 +3668,9 @@
       <c r="E18" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -2058,6 +3690,9 @@
       <c r="E19" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -2077,6 +3712,9 @@
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -2096,6 +3734,9 @@
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -2115,6 +3756,9 @@
       <c r="E22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -2134,6 +3778,9 @@
       <c r="E23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -2153,6 +3800,9 @@
       <c r="E24" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -2172,6 +3822,9 @@
       <c r="E25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -2191,6 +3844,9 @@
       <c r="E26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -2210,6 +3866,9 @@
       <c r="E27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -2229,6 +3888,9 @@
       <c r="E28" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -2248,6 +3910,9 @@
       <c r="E29" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -2267,6 +3932,9 @@
       <c r="E30" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -2286,6 +3954,9 @@
       <c r="E31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -2305,6 +3976,9 @@
       <c r="E32" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -2324,6 +3998,9 @@
       <c r="E33" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F33" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -2343,6 +4020,9 @@
       <c r="E34" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -2362,6 +4042,9 @@
       <c r="E35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -2381,6 +4064,9 @@
       <c r="E36" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -2400,6 +4086,9 @@
       <c r="E37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -2419,6 +4108,9 @@
       <c r="E38" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F38" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -2438,6 +4130,9 @@
       <c r="E39" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -2457,6 +4152,9 @@
       <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F40" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -2476,6 +4174,9 @@
       <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F41" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -2495,6 +4196,9 @@
       <c r="E42" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -2514,6 +4218,9 @@
       <c r="E43" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -2533,6 +4240,9 @@
       <c r="E44" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -2552,6 +4262,9 @@
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -2571,6 +4284,9 @@
       <c r="E46" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -2590,6 +4306,9 @@
       <c r="E47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -2609,6 +4328,9 @@
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F48" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -2628,6 +4350,9 @@
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -2647,6 +4372,9 @@
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -2666,6 +4394,9 @@
       <c r="E51" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -2685,6 +4416,9 @@
       <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F52" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -2704,6 +4438,9 @@
       <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -2723,6 +4460,9 @@
       <c r="E54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -2742,6 +4482,9 @@
       <c r="E55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -2761,6 +4504,9 @@
       <c r="E56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -2779,6 +4525,9 @@
       </c>
       <c r="E57" s="0" t="n">
         <v>0.5</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2786,13 +4535,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2826,6 +4575,11 @@
           <t>Session 4</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2845,6 +4599,9 @@
       <c r="E2" t="n">
         <v>0.7857142857142857</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2864,6 +4621,9 @@
       <c r="E3" t="n">
         <v>0.8571428571428571</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.9285714285714286</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2883,6 +4643,9 @@
       <c r="E4" t="n">
         <v>0.8571428571428571</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2901,6 +4664,9 @@
       </c>
       <c r="E5" t="n">
         <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9285714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +8577,7 @@
   </sheetPr>
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
@@ -8988,10 +10754,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8999,81 +10765,1457 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
+          <t>pop</t>
         </is>
       </c>
       <c r="B1" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.095491</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
+          <t>sin</t>
         </is>
       </c>
       <c r="B2" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.19162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
+          <t>cot</t>
         </is>
       </c>
       <c r="B3" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.8899956</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
+          <t>look</t>
         </is>
       </c>
       <c r="B4" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.605919</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
+          <t>Luke</t>
         </is>
       </c>
       <c r="B5" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.9617424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>set</t>
         </is>
       </c>
       <c r="B6" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.9181862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="B7" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.370415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.084969</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.517914</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.02285</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.22187</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.219543</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.8419495</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.7769470000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.137184</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.6670227</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.8453522</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.7656096999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.3698883</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.8008118</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.5405273</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.8581543</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.269028</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.8498535</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.6622772</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.140396</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.594986</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.8108368</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.53241</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.8656158</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.7457581</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.3803558</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.5599364999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.8437805</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.740387</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.7274475</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.8460388</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.7890625</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.5608521</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.4329224</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.086884</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.5848694</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.3752747</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.7268677</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.4485168</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.7806396</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.40744</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.950592</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.764679</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.543915</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.5644531</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5197144</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.8997803</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.9934692000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.07019</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
           <t>ten</t>
         </is>
       </c>
-      <c r="B8" s="0" t="b">
-        <v>1</v>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.5609131000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.187878</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.5298462</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.305492</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.8354187</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.9309921</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.783432</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.5445404</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.7312698</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.4328461</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.7622223</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.9005356</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.711441</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.9831467</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.5594025</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.6330566</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.5519714</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.3706665</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.305542</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.5003815</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.3947296</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.7501221</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.6791382</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.5185852</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.6090698</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.6215363</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.4568634</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.323425</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.3027802</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.4121552</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.4326935</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.7319336</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.6021423</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.6003723</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.6854247999999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.8305969</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.5064697</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.332733</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.7103577</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.125549</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.698761</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.6208496</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.4216919</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.7102356</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.235321</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.5150146</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.576355</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.406311</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.8928223</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.2787476</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.3606262</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.657196</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.3292236</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.7339783</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.3542786</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.4884033</v>
       </c>
     </row>
   </sheetData>
@@ -9087,10 +12229,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9098,1457 +12240,81 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
+          <t>but</t>
         </is>
       </c>
       <c r="B1" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>1.560577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>bot</t>
         </is>
       </c>
       <c r="B2" s="0" t="b">
         <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.045303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
+          <t>pool</t>
         </is>
       </c>
       <c r="B3" s="0" t="b">
         <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.641327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>pull</t>
         </is>
       </c>
       <c r="B4" s="0" t="b">
         <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1.040474</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
+          <t>itch</t>
         </is>
       </c>
       <c r="B5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1.619682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
+          <t>pet</t>
         </is>
       </c>
       <c r="B6" s="0" t="b">
         <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.8565292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>each</t>
         </is>
       </c>
       <c r="B7" s="0" t="b">
         <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1.868866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t>pat</t>
         </is>
       </c>
       <c r="B8" s="0" t="b">
         <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.774025</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.7989731</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1.467979</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.8559875</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1.244583</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.9572449</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>3.054367</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.9176636</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1.231064</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1.146881</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1.593781</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0.6697388</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1.171234</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0.7213898</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0.5678558</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1.158295</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0.9220275999999999</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>1.479935</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0.6828613</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>1.187561</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>1.317932</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0.9000549</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0.8800964</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1.403961</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0.9708252000000001</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="inlineStr">
-        <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>1.150757</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0.8439636</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>1.380676</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="inlineStr">
-        <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>3.666901</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>2.726807</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>1.099548</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="inlineStr">
-        <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>2.336426</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>1.157623</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="inlineStr">
-        <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0.8022766</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="inlineStr">
-        <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>1.241882</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0.8124695</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0.7055359</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="inlineStr">
-        <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>1.743317</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>1.052917</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="inlineStr">
-        <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>1.831238</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="inlineStr">
-        <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0.9083252000000001</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="inlineStr">
-        <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>0.9865723</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>0.9662476</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="inlineStr">
-        <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>1.357727</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>1.261597</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="inlineStr">
-        <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>0.8714294</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>1.417419</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>0.769165</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="inlineStr">
-        <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>0.6687622</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="inlineStr">
-        <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B57" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>1.512503</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="inlineStr">
-        <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B58" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>1.593094</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="inlineStr">
-        <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B59" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>0.9649124</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="inlineStr">
-        <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B60" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>1.183929</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B61" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>1.86441</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B62" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>1.537956</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B63" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>1.504623</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="inlineStr">
-        <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B64" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>0.6683121</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B65" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>0.9035339</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B66" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>2.587624</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B67" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>0.7772217</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="inlineStr">
-        <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B68" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>0.6329346</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0" t="inlineStr">
-        <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B69" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>1.648796</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="inlineStr">
-        <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B70" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>2.28508</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B71" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>1.192047</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B72" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>1.436569</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B73" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>0.7961121</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B74" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>1.324936</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0" t="inlineStr">
-        <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B75" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>0.9869843</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="B76" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>1.010071</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B77" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>0.8419647</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="inlineStr">
-        <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B78" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>0.7598724</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B79" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>0.4551697</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="inlineStr">
-        <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B80" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>1.787476</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B81" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>0.997345</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="inlineStr">
-        <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B82" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>0.9943085</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B83" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>0.5491333</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="inlineStr">
-        <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B84" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>0.7916718</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B85" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>2.081039</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="inlineStr">
-        <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B86" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>0.9818573</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B87" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>0.9267883</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="inlineStr">
-        <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B88" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>1.013077</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="inlineStr">
-        <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B89" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>0.9912872</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="inlineStr">
-        <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B90" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>0.5809326</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="inlineStr">
-        <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B91" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>0.8624878</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="0" t="inlineStr">
-        <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B92" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>0.9923706</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="0" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B93" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C93" s="0" t="n">
-        <v>0.2400208</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="0" t="inlineStr">
-        <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B94" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C94" s="0" t="n">
-        <v>0.7333679</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="0" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B95" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>1.234009</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="inlineStr">
-        <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B96" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>0.6014404</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="0" t="inlineStr">
-        <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B97" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>0.6328735</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="0" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B98" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C98" s="0" t="n">
-        <v>1.641998</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="0" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B99" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>1.310333</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="0" t="inlineStr">
-        <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B100" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>1.135712</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="0" t="inlineStr">
-        <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B101" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C101" s="0" t="n">
-        <v>0.9178771999999999</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="0" t="inlineStr">
-        <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B102" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C102" s="0" t="n">
-        <v>1.135254</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0" t="inlineStr">
-        <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B103" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C103" s="0" t="n">
-        <v>0.529541</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="0" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B104" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C104" s="0" t="n">
-        <v>1.143219</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="0" t="inlineStr">
-        <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B105" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>1.609772</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="0" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B106" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C106" s="0" t="n">
-        <v>1.21875</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="0" t="inlineStr">
-        <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B107" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C107" s="0" t="n">
-        <v>1.478394</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="0" t="inlineStr">
-        <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B108" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>0.9320374</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="0" t="inlineStr">
-        <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B109" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C109" s="0" t="n">
-        <v>0.5482483</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="0" t="inlineStr">
-        <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B110" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>0.7411194</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="0" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B111" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C111" s="0" t="n">
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="0" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B112" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="C112" s="0" t="n">
-        <v>0.924408</v>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/6170.xlsx
+++ b/VR Karting/Results/6170.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="760" windowWidth="21420" windowHeight="21580" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="760" windowWidth="21420" windowHeight="21580" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,12 +14,14 @@
     <sheet name="Mini 4" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="MID" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Session 5" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Mini 5" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Mini 1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Session 2" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Mini 2" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Contrast Accuracies" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Session 6" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mini 6" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Mini 5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mini 1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Session 2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Mini 2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Word Accuracies" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Contrast Accuracies" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1587,6 +1589,204 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
@@ -1678,7 +1878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3153,7 +3353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3252,13 +3452,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3297,6 +3497,11 @@
           <t>Session 5</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -3319,6 +3524,9 @@
       <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -3341,6 +3549,9 @@
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -3363,6 +3574,9 @@
       <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -3385,6 +3599,9 @@
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -3407,6 +3624,9 @@
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -3429,6 +3649,9 @@
       <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -3451,6 +3674,9 @@
       <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -3473,6 +3699,9 @@
       <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -3495,6 +3724,9 @@
       <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -3517,6 +3749,9 @@
       <c r="F11" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -3539,6 +3774,9 @@
       <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -3561,6 +3799,9 @@
       <c r="F13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -3583,6 +3824,9 @@
       <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -3605,6 +3849,9 @@
       <c r="F15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -3627,6 +3874,9 @@
       <c r="F16" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -3649,6 +3899,9 @@
       <c r="F17" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -3671,6 +3924,9 @@
       <c r="F18" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -3693,6 +3949,9 @@
       <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -3715,6 +3974,9 @@
       <c r="F20" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -3737,6 +3999,9 @@
       <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -3759,6 +4024,9 @@
       <c r="F22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -3781,6 +4049,9 @@
       <c r="F23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -3803,6 +4074,9 @@
       <c r="F24" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -3825,6 +4099,9 @@
       <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -3847,6 +4124,9 @@
       <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -3869,6 +4149,9 @@
       <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -3891,6 +4174,9 @@
       <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -3913,6 +4199,9 @@
       <c r="F29" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -3935,6 +4224,9 @@
       <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -3957,6 +4249,9 @@
       <c r="F31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -3979,6 +4274,9 @@
       <c r="F32" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G32" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -4001,6 +4299,9 @@
       <c r="F33" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -4023,6 +4324,9 @@
       <c r="F34" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -4045,6 +4349,9 @@
       <c r="F35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -4067,6 +4374,9 @@
       <c r="F36" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -4089,6 +4399,9 @@
       <c r="F37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -4111,6 +4424,9 @@
       <c r="F38" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -4133,6 +4449,9 @@
       <c r="F39" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -4155,6 +4474,9 @@
       <c r="F40" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -4177,6 +4499,9 @@
       <c r="F41" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -4199,6 +4524,9 @@
       <c r="F42" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -4221,6 +4549,9 @@
       <c r="F43" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -4243,6 +4574,9 @@
       <c r="F44" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -4265,6 +4599,9 @@
       <c r="F45" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -4287,6 +4624,9 @@
       <c r="F46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G46" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -4309,6 +4649,9 @@
       <c r="F47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -4331,6 +4674,9 @@
       <c r="F48" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -4353,6 +4699,9 @@
       <c r="F49" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -4375,6 +4724,9 @@
       <c r="F50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G50" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -4397,6 +4749,9 @@
       <c r="F51" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G51" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -4419,6 +4774,9 @@
       <c r="F52" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G52" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -4441,6 +4799,9 @@
       <c r="F53" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -4463,6 +4824,9 @@
       <c r="F54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -4485,6 +4849,9 @@
       <c r="F55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -4507,6 +4874,9 @@
       <c r="F56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -4528,6 +4898,9 @@
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4535,13 +4908,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4580,6 +4953,11 @@
           <t>Session 5</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4602,6 +4980,9 @@
       <c r="F2" t="n">
         <v>0.8214285714285714</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.8928571428571429</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4624,6 +5005,9 @@
       <c r="F3" t="n">
         <v>0.9285714285714286</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4646,6 +5030,9 @@
       <c r="F4" t="n">
         <v>0.8571428571428571</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4667,6 +5054,9 @@
       </c>
       <c r="F5" t="n">
         <v>0.9285714285714286</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7857142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -10756,7 +11146,7 @@
   </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -12229,10 +12619,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -12240,81 +12630,1457 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>could</t>
         </is>
       </c>
       <c r="B1" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.9384995</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>tan</t>
         </is>
       </c>
       <c r="B2" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.225471</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
+          <t>rich</t>
         </is>
       </c>
       <c r="B3" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.8379669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>Luke</t>
         </is>
       </c>
       <c r="B4" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.3913803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
+          <t>met</t>
         </is>
       </c>
       <c r="B5" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.6773071000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
+          <t>should</t>
         </is>
       </c>
       <c r="B6" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.7651672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>chip</t>
         </is>
       </c>
       <c r="B7" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.9299011</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.6290588</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.5644684</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.4574127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.3886566</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.6983032</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.7476654</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.1087036</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.3210297</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.9042511</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.6875763</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.7184601</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.6343993999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.7082062</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.7556763</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.8466034</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.7326965</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.8124695</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.4707031</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.7272339</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.3546143</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.2627869</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.927429</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.5144348</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.37323</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.7542114</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.3023376</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.8937073</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.6203613</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5558472</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.2735901</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.6201172</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.3390503</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.7992249</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5242004</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.5230408</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.4065857</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.8091736</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.3522339</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.4427185</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.2396851</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.3967896</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.6113892</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.425415</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.178009</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.357544</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.3711548</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
           <t>pat</t>
         </is>
       </c>
-      <c r="B8" s="0" t="b">
-        <v>1</v>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.7099609</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.5052185</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.4381104</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.7330284</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.9796715</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.4957695</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.4084778</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.6762276</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.6359138</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.2049713</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.7477951</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.521965</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.9109879</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.7231369</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.5535049</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.205811</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.7696762</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.5924072</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.7339020000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.4909363</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.8937531</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.016449</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.4918518</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.6365356</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.167404</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.8137817000000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.300934</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.3241577</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.5732269</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.8893127</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.242157</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.809906</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.5491943</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.2928772</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.3568115</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.6440582</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.280945</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.8018494</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.6401672</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.4805603</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.4221191</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.5518188000000001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.9891663000000001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.6611938000000001</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.7617188</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.852356</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.4382019</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.3708191</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.3027344</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.3629456</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.2756653</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.3096008</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.7616577</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.5404968</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.6570435</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.6268921</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.7624512</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.4833374</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.6286316</v>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/6170.xlsx
+++ b/VR Karting/Results/6170.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="760" windowWidth="21420" windowHeight="21580" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="760" windowWidth="21420" windowHeight="21580" tabRatio="600" firstSheet="1" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,12 +16,14 @@
     <sheet name="Session 5" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Session 6" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Mini 6" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Mini 5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Mini 1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Session 2" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Mini 2" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Word Accuracies" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Contrast Accuracies" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Mini 7" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Session 7" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Mini 5" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Mini 1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Session 2" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Mini 2" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Contrast Accuracies" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1589,7 +1591,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1681,6 +1683,1580 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.067371</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.6365852</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.3747559</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5051422</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.9470367</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.6532288000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.504921</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.9682922</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.7478409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.5580063</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.40242</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5554199</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.4820862</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.6355438</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.5982971</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.9288635</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5784454</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5567017</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.7953186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.7121124</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.7474213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.5739899000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.021637</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5093842</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.7492065</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.2995911</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.7713928</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.4836884</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.4450073</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.4780273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.8312988</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.3923645</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.754364</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.448181</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.5020142</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.583252</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.9817505</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.8424377</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.3862305</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.8851928999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.7003479</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.4337463</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.5350952</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.06323242</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.37146</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.401886</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.4900208</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.624176</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.4249268</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.4315491</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.3687744</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.7077026</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.18277</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.4617004</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.4958801</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.551189</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.4689732</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.565136</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.4534874</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.6016388</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.5117798</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.9472351</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.4023819</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.4208527</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.6530914</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.4624786</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.2979965</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.9557266</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.69561</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.2836075</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.409256</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.5107117</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.184921</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.3217468</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.7631073</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.5883484</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.7574158</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.260574</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.4062195</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.4594574</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.3398285</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.4733887</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.7073822</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.2762756</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.7804413</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.9910126</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.099777</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.5670471</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.4187317</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.9281921</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.3988953</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.6449279999999999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2.121582</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.394928</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.7503967</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.3885193</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.7485046</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.6607361</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.7478333</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.2858582</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.4019165</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.2667236</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.8896179</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.410675</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.6989746</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.3045349</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.309845</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.3754883</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.5916747999999999</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.622345</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.727356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1779,7 +3355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1878,7 +3454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3353,7 +4929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3452,13 +5028,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3502,6 +5078,11 @@
           <t>Session 6</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -3527,6 +5108,9 @@
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -3552,6 +5136,9 @@
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -3577,6 +5164,9 @@
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -3602,6 +5192,9 @@
       <c r="G5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -3627,6 +5220,9 @@
       <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -3652,6 +5248,9 @@
       <c r="G7" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -3677,6 +5276,9 @@
       <c r="G8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -3702,6 +5304,9 @@
       <c r="G9" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -3727,6 +5332,9 @@
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -3752,6 +5360,9 @@
       <c r="G11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -3777,6 +5388,9 @@
       <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -3802,6 +5416,9 @@
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H13" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -3827,6 +5444,9 @@
       <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -3852,6 +5472,9 @@
       <c r="G15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -3877,6 +5500,9 @@
       <c r="G16" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -3902,6 +5528,9 @@
       <c r="G17" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H17" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -3927,6 +5556,9 @@
       <c r="G18" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H18" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -3952,6 +5584,9 @@
       <c r="G19" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -3977,6 +5612,9 @@
       <c r="G20" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H20" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -4002,6 +5640,9 @@
       <c r="G21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -4027,6 +5668,9 @@
       <c r="G22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -4052,6 +5696,9 @@
       <c r="G23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -4077,6 +5724,9 @@
       <c r="G24" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -4102,6 +5752,9 @@
       <c r="G25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -4127,6 +5780,9 @@
       <c r="G26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -4152,6 +5808,9 @@
       <c r="G27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -4177,6 +5836,9 @@
       <c r="G28" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -4202,6 +5864,9 @@
       <c r="G29" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -4227,6 +5892,9 @@
       <c r="G30" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -4252,6 +5920,9 @@
       <c r="G31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H31" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -4277,6 +5948,9 @@
       <c r="G32" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -4302,6 +5976,9 @@
       <c r="G33" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H33" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -4327,6 +6004,9 @@
       <c r="G34" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -4352,6 +6032,9 @@
       <c r="G35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -4377,6 +6060,9 @@
       <c r="G36" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -4402,6 +6088,9 @@
       <c r="G37" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -4427,6 +6116,9 @@
       <c r="G38" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -4452,6 +6144,9 @@
       <c r="G39" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -4477,6 +6172,9 @@
       <c r="G40" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -4502,6 +6200,9 @@
       <c r="G41" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H41" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -4527,6 +6228,9 @@
       <c r="G42" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -4552,6 +6256,9 @@
       <c r="G43" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -4577,6 +6284,9 @@
       <c r="G44" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H44" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -4602,6 +6312,9 @@
       <c r="G45" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -4627,6 +6340,9 @@
       <c r="G46" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H46" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -4652,6 +6368,9 @@
       <c r="G47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -4677,6 +6396,9 @@
       <c r="G48" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -4702,6 +6424,9 @@
       <c r="G49" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -4727,6 +6452,9 @@
       <c r="G50" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H50" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -4752,6 +6480,9 @@
       <c r="G51" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H51" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -4777,6 +6508,9 @@
       <c r="G52" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -4802,6 +6536,9 @@
       <c r="G53" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -4827,6 +6564,9 @@
       <c r="G54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -4852,6 +6592,9 @@
       <c r="G55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -4877,6 +6620,9 @@
       <c r="G56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -4901,6 +6647,9 @@
       </c>
       <c r="G57" s="0" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4908,13 +6657,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4958,6 +6707,11 @@
           <t>Session 6</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4983,6 +6737,9 @@
       <c r="G2" t="n">
         <v>0.8928571428571429</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5008,6 +6765,9 @@
       <c r="G3" t="n">
         <v>0.8928571428571429</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5033,6 +6793,9 @@
       <c r="G4" t="n">
         <v>0.8214285714285714</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.6428571428571429</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5057,6 +6820,9 @@
       </c>
       <c r="G5" t="n">
         <v>0.7857142857142857</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9642857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/6170.xlsx
+++ b/VR Karting/Results/6170.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="760" windowWidth="21420" windowHeight="21580" tabRatio="600" firstSheet="1" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="760" windowWidth="21420" windowHeight="21580" tabRatio="600" firstSheet="4" activeTab="14" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="Mini 6" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Mini 7" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Session 7" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Mini 5" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Mini 1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Session 2" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Mini 2" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Contrast Accuracies" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Session 8" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Mini 8" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="POST" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Mini 5" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Mini 1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Session 2" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Mini 2" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Word Accuracies" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Contrast Accuracies" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1789,7 +1792,7 @@
   </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
@@ -3257,6 +3260,3759 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.6963882</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.121239</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.090027</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.047081</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.8225098</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.8239975</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.4975586</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.6502228</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.65448</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.7692871</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.8429108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5119019</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.6824646</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.5581512</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.240936</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.7201843</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.7108765</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.9066467</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.8183746</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.4707642</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.6474609</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.6837921</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.8671265</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.9712372</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.6559906</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.7507324</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.319763</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.9138794</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.2577515</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.6656799</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.5019531</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.00647</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.4518127</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.3895264</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.028595</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.078613</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.4935913</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.4386292</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.7168274</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.9909057999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.269775</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.029266</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.6756896999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.8405151</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.8108826</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.8813171</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.714325</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.9271239999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.4630127</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.108978</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.6613464</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.3983765</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.9529114</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.5824585</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.2453308</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.4491577</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.8300246999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.5323257</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.7070045</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.02787</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.180004</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.8161812000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.6635437</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.4975357</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.6557007</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.6278</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.9880753</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.6631699</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.5054703</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.4119415</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.45327</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.8113403</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.3428192</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.081696</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.6425629</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.4258423</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.9382019</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.3238373</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.3138275</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.7679749</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.4491425</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.5246277</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.333374</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.4247894</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.4278412</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.7975769</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.4953003</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.2943726</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.1693115</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.560791</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.8140868999999999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.621338</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.104187</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.4791565</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.7155762</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.2756348</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.2237244</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.3959045</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.3896179</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.5857849000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.344574</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.7902222</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.6705017</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.0737</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.4059753</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.145874</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.5240784000000001</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.8088989</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.2525635</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.839325</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.4404602</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.5461426</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3355,7 +7111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3454,7 +7210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4929,7 +8685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5025,1808 +8781,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Session 5</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Session 6</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Session 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="inlineStr">
-        <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="inlineStr">
-        <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="inlineStr">
-        <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="inlineStr">
-        <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="inlineStr">
-        <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="inlineStr">
-        <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="inlineStr">
-        <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="inlineStr">
-        <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="inlineStr">
-        <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="inlineStr">
-        <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="inlineStr">
-        <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="inlineStr">
-        <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="inlineStr">
-        <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="inlineStr">
-        <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Session 5</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Session 6</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Session 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9642857142857143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -7574,6 +9528,1998 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/VR Karting/Results/6170.xlsx
+++ b/VR Karting/Results/6170.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kaist-my.sharepoint.com/personal/haeun5_office_kaist_ac_kr/Documents/석사논문/VRPT 공유 자료/실험결과파일 Raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forclass/Source/Masters/VR Karting/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_372F4B58DBC9ABD067088AF40913DE2420675708" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9139CF50-3E65-264C-AB03-9795D631AAAE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F54BDA-3206-6F43-8001-8E62703A4A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="760" windowWidth="21420" windowHeight="21580" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="760" windowWidth="21420" windowHeight="21580" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="91">
   <si>
     <t>bit</t>
   </si>
@@ -704,15 +704,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,8 +722,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -733,8 +736,11 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -744,8 +750,11 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -755,8 +764,11 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -766,8 +778,11 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -777,8 +792,11 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -788,8 +806,11 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -799,8 +820,11 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -810,8 +834,11 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -821,8 +848,11 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -832,8 +862,11 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -843,8 +876,11 @@
       <c r="C12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -854,8 +890,11 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -865,8 +904,11 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -876,8 +918,11 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -887,8 +932,11 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -898,8 +946,11 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -909,8 +960,11 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -920,8 +974,11 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -931,8 +988,11 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -942,8 +1002,11 @@
       <c r="C21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -953,8 +1016,11 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -964,8 +1030,11 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -975,8 +1044,11 @@
       <c r="C24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -986,8 +1058,11 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -997,8 +1072,11 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1008,8 +1086,11 @@
       <c r="C27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1019,8 +1100,11 @@
       <c r="C28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1030,8 +1114,11 @@
       <c r="C29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1041,8 +1128,11 @@
       <c r="C30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1052,8 +1142,11 @@
       <c r="C31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1063,8 +1156,11 @@
       <c r="C32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1170,11 @@
       <c r="C33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1085,8 +1184,11 @@
       <c r="C34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1096,8 +1198,11 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1107,8 +1212,11 @@
       <c r="C36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1118,8 +1226,11 @@
       <c r="C37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1129,8 +1240,11 @@
       <c r="C38" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1140,8 +1254,11 @@
       <c r="C39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1151,8 +1268,11 @@
       <c r="C40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1162,8 +1282,11 @@
       <c r="C41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1173,8 +1296,11 @@
       <c r="C42" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -1184,8 +1310,11 @@
       <c r="C43" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1195,8 +1324,11 @@
       <c r="C44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1206,8 +1338,11 @@
       <c r="C45" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1217,8 +1352,11 @@
       <c r="C46" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1228,8 +1366,11 @@
       <c r="C47" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1239,8 +1380,11 @@
       <c r="C48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1250,8 +1394,11 @@
       <c r="C49" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -1261,8 +1408,11 @@
       <c r="C50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1272,8 +1422,11 @@
       <c r="C51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1283,8 +1436,11 @@
       <c r="C52" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1294,8 +1450,11 @@
       <c r="C53" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1305,8 +1464,11 @@
       <c r="C54" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1316,8 +1478,11 @@
       <c r="C55" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1327,8 +1492,11 @@
       <c r="C56" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1338,8 +1506,11 @@
       <c r="C57" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1349,8 +1520,11 @@
       <c r="C58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1360,8 +1534,11 @@
       <c r="C59" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1371,8 +1548,11 @@
       <c r="C60" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -1382,8 +1562,11 @@
       <c r="C61" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1393,8 +1576,11 @@
       <c r="C62" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1404,8 +1590,11 @@
       <c r="C63" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1415,8 +1604,11 @@
       <c r="C64" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1426,8 +1618,11 @@
       <c r="C65" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -1437,8 +1632,11 @@
       <c r="C66" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -1448,8 +1646,11 @@
       <c r="C67" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -1459,8 +1660,11 @@
       <c r="C68" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1470,8 +1674,11 @@
       <c r="C69" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -1481,8 +1688,11 @@
       <c r="C70" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -1492,8 +1702,11 @@
       <c r="C71" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -1502,6 +1715,369 @@
       </c>
       <c r="C72" t="s">
         <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="D73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="D74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="D75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="D77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="D78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="D80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="D135" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4">
+      <c r="D140" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4248,15 +4824,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4266,8 +4842,11 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4277,8 +4856,11 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4288,8 +4870,11 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4299,8 +4884,11 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4310,8 +4898,11 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4321,8 +4912,11 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4332,8 +4926,11 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4343,8 +4940,11 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4354,8 +4954,11 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4365,8 +4968,11 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -4376,8 +4982,11 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4387,8 +4996,11 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4398,8 +5010,11 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4409,8 +5024,11 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4420,8 +5038,11 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -4431,8 +5052,11 @@
       <c r="C16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4442,8 +5066,11 @@
       <c r="C17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4453,8 +5080,11 @@
       <c r="C18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4464,8 +5094,11 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -4475,8 +5108,11 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4486,8 +5122,11 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -4497,8 +5136,11 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -4508,8 +5150,11 @@
       <c r="C23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -4519,8 +5164,11 @@
       <c r="C24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -4530,8 +5178,11 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -4541,8 +5192,11 @@
       <c r="C26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4552,8 +5206,11 @@
       <c r="C27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -4563,8 +5220,11 @@
       <c r="C28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -4574,8 +5234,11 @@
       <c r="C29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -4585,8 +5248,11 @@
       <c r="C30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -4596,8 +5262,11 @@
       <c r="C31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -4607,8 +5276,11 @@
       <c r="C32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4618,8 +5290,11 @@
       <c r="C33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4629,8 +5304,11 @@
       <c r="C34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -4640,8 +5318,11 @@
       <c r="C35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -4651,8 +5332,11 @@
       <c r="C36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -4662,8 +5346,11 @@
       <c r="C37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -4673,8 +5360,11 @@
       <c r="C38" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -4684,8 +5374,11 @@
       <c r="C39" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -4695,8 +5388,11 @@
       <c r="C40" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4706,8 +5402,11 @@
       <c r="C41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -4717,8 +5416,11 @@
       <c r="C42" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -4728,8 +5430,11 @@
       <c r="C43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -4739,8 +5444,11 @@
       <c r="C44" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -4750,8 +5458,11 @@
       <c r="C45" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -4761,8 +5472,11 @@
       <c r="C46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -4772,8 +5486,11 @@
       <c r="C47" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -4783,8 +5500,11 @@
       <c r="C48" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -4794,8 +5514,11 @@
       <c r="C49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -4805,8 +5528,11 @@
       <c r="C50" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -4816,8 +5542,11 @@
       <c r="C51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -4827,8 +5556,11 @@
       <c r="C52" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -4838,8 +5570,11 @@
       <c r="C53" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -4849,8 +5584,11 @@
       <c r="C54" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -4860,8 +5598,11 @@
       <c r="C55" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -4871,8 +5612,11 @@
       <c r="C56" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -4882,8 +5626,11 @@
       <c r="C57" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -4893,8 +5640,11 @@
       <c r="C58" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -4904,8 +5654,11 @@
       <c r="C59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -4915,8 +5668,11 @@
       <c r="C60" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -4926,8 +5682,11 @@
       <c r="C61" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -4937,8 +5696,11 @@
       <c r="C62" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -4948,8 +5710,11 @@
       <c r="C63" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -4959,8 +5724,11 @@
       <c r="C64" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -4970,8 +5738,11 @@
       <c r="C65" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -4981,8 +5752,11 @@
       <c r="C66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -4992,8 +5766,11 @@
       <c r="C67" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -5003,8 +5780,11 @@
       <c r="C68" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -5014,8 +5794,11 @@
       <c r="C69" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -5025,8 +5808,11 @@
       <c r="C70" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -5036,8 +5822,11 @@
       <c r="C71" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -5047,8 +5836,11 @@
       <c r="C72" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -5058,8 +5850,11 @@
       <c r="C73" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -5069,8 +5864,11 @@
       <c r="C74" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -5080,8 +5878,11 @@
       <c r="C75" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -5091,8 +5892,11 @@
       <c r="C76" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -5102,8 +5906,11 @@
       <c r="C77" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -5113,8 +5920,11 @@
       <c r="C78" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -5124,8 +5934,11 @@
       <c r="C79" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -5135,8 +5948,11 @@
       <c r="C80" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -5146,8 +5962,11 @@
       <c r="C81" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -5157,8 +5976,11 @@
       <c r="C82" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -5168,8 +5990,11 @@
       <c r="C83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -5179,8 +6004,11 @@
       <c r="C84" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -5190,8 +6018,11 @@
       <c r="C85" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -5201,8 +6032,11 @@
       <c r="C86" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -5212,8 +6046,11 @@
       <c r="C87" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5223,8 +6060,11 @@
       <c r="C88" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -5234,8 +6074,11 @@
       <c r="C89" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -5245,8 +6088,11 @@
       <c r="C90" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -5256,8 +6102,11 @@
       <c r="C91" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -5267,8 +6116,11 @@
       <c r="C92" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -5278,8 +6130,11 @@
       <c r="C93" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -5289,8 +6144,11 @@
       <c r="C94" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -5300,8 +6158,11 @@
       <c r="C95" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -5311,8 +6172,11 @@
       <c r="C96" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -5322,8 +6186,11 @@
       <c r="C97" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -5333,8 +6200,11 @@
       <c r="C98" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -5344,8 +6214,11 @@
       <c r="C99" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -5355,8 +6228,11 @@
       <c r="C100" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -5366,8 +6242,11 @@
       <c r="C101" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -5377,8 +6256,11 @@
       <c r="C102" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -5388,8 +6270,11 @@
       <c r="C103" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -5399,8 +6284,11 @@
       <c r="C104" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -5410,8 +6298,11 @@
       <c r="C105" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -5421,8 +6312,11 @@
       <c r="C106" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -5432,8 +6326,11 @@
       <c r="C107" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -5443,8 +6340,11 @@
       <c r="C108" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -5454,8 +6354,11 @@
       <c r="C109" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -5465,8 +6368,11 @@
       <c r="C110" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -5476,8 +6382,11 @@
       <c r="C111" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -5487,8 +6396,11 @@
       <c r="C112" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -5498,8 +6410,11 @@
       <c r="C113" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -5509,8 +6424,11 @@
       <c r="C114" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -5520,8 +6438,11 @@
       <c r="C115" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -5531,8 +6452,11 @@
       <c r="C116" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -5542,8 +6466,11 @@
       <c r="C117" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -5553,8 +6480,11 @@
       <c r="C118" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -5564,8 +6494,11 @@
       <c r="C119" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -5575,8 +6508,11 @@
       <c r="C120" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -5586,8 +6522,11 @@
       <c r="C121" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -5597,8 +6536,11 @@
       <c r="C122" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -5608,8 +6550,11 @@
       <c r="C123" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -5619,8 +6564,11 @@
       <c r="C124" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -5630,8 +6578,11 @@
       <c r="C125" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -5641,8 +6592,11 @@
       <c r="C126" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -5652,8 +6606,11 @@
       <c r="C127" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -5663,8 +6620,11 @@
       <c r="C128" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -5674,8 +6634,11 @@
       <c r="C129" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -5685,8 +6648,11 @@
       <c r="C130" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -5696,8 +6662,11 @@
       <c r="C131" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -5707,8 +6676,11 @@
       <c r="C132" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -5718,8 +6690,11 @@
       <c r="C133" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -5729,8 +6704,11 @@
       <c r="C134" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -5740,8 +6718,11 @@
       <c r="C135" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -5751,8 +6732,11 @@
       <c r="C136" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -5762,8 +6746,11 @@
       <c r="C137" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -5773,8 +6760,11 @@
       <c r="C138" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -5784,8 +6774,11 @@
       <c r="C139" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -5795,8 +6788,11 @@
       <c r="C140" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -5806,8 +6802,11 @@
       <c r="C141" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -5817,8 +6816,11 @@
       <c r="C142" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -5828,8 +6830,11 @@
       <c r="C143" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -5838,6 +6843,9 @@
       </c>
       <c r="C144" t="s">
         <v>13</v>
+      </c>
+      <c r="D144" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -12648,7 +13656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
